--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,21 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -76,25 +82,31 @@
     <t>love</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>daughter</t>
   </si>
   <si>
     <t>salad</t>
@@ -103,286 +115,283 @@
     <t>kids</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
     <t>pie</t>
   </si>
   <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>popcorn</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cream</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>quick</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>far</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>dish</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>purchased</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>purchased</t>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>long</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>better</t>
+    <t>item</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>use</t>
+    <t>work</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>would</t>
@@ -746,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -857,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -865,13 +874,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K4">
-        <v>0.9139784946236559</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -907,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4341085271317829</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.921875</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -957,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -965,37 +974,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3535353535353535</v>
+        <v>0.3979591836734694</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1007,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1015,13 +1024,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3076923076923077</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8622291021671826</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L7">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="M7">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1065,83 +1074,131 @@
         <v>13</v>
       </c>
       <c r="B8">
+        <v>0.3676470588235294</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="L8">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>29</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.3488372093023256</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>84</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="L9">
+        <v>37</v>
+      </c>
+      <c r="M9">
+        <v>37</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>0.1891891891891892</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>35</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>35</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>150</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>0.8478260869565217</v>
-      </c>
-      <c r="L8">
-        <v>39</v>
-      </c>
-      <c r="M8">
-        <v>39</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="J9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9">
-        <v>0.8051948051948052</v>
-      </c>
-      <c r="L9">
-        <v>62</v>
-      </c>
-      <c r="M9">
-        <v>62</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L10">
         <v>35</v>
@@ -1159,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7359307359307359</v>
+        <v>0.7593220338983051</v>
       </c>
       <c r="L11">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="M11">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1185,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7272727272727273</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.717948717948718</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,21 +1294,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7016949152542373</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L14">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,21 +1320,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6986301369863014</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,21 +1346,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6938775510204082</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,21 +1372,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6875</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1341,21 +1398,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6805555555555556</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1367,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6773675762439807</v>
+        <v>0.671875</v>
       </c>
       <c r="L19">
-        <v>844</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>844</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1393,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>402</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.676056338028169</v>
+        <v>0.6709470304975923</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>836</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>836</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1419,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6685714285714286</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1445,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1471,47 +1528,47 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6571428571428571</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L23">
+        <v>45</v>
+      </c>
+      <c r="M23">
+        <v>45</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>23</v>
-      </c>
-      <c r="M23">
-        <v>23</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.65625</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1528,16 +1585,16 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25">
+        <v>0.6491228070175439</v>
+      </c>
+      <c r="L25">
         <v>37</v>
       </c>
-      <c r="K25">
-        <v>0.6342857142857142</v>
-      </c>
-      <c r="L25">
-        <v>111</v>
-      </c>
       <c r="M25">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1549,47 +1606,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <v>0.6346153846153846</v>
+      </c>
+      <c r="L26">
+        <v>66</v>
+      </c>
+      <c r="M26">
+        <v>66</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>38</v>
-      </c>
-      <c r="K26">
-        <v>0.6323529411764706</v>
-      </c>
-      <c r="L26">
-        <v>43</v>
-      </c>
-      <c r="M26">
-        <v>43</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6307692307692307</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1601,21 +1658,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6239316239316239</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L28">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1627,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6078431372549019</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1653,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.6031746031746031</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1679,21 +1736,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1705,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5808383233532934</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L32">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1731,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5692307692307692</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1757,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5409836065573771</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1783,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.5365853658536586</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1809,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5308641975308642</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1835,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.5306122448979592</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1861,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.5288461538461539</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L38">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1887,47 +1944,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.5263157894736842</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="L39">
+        <v>41</v>
+      </c>
+      <c r="M39">
+        <v>41</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>40</v>
-      </c>
-      <c r="M39">
-        <v>40</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.5180722891566265</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L40">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1939,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.5037593984962406</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L41">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="M41">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1965,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.4821428571428572</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1991,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.4761904761904762</v>
+        <v>0.46</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2017,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.47</v>
+        <v>0.4338235294117647</v>
       </c>
       <c r="L44">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2043,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>53</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.4518072289156627</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L45">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2069,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.4516129032258064</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2095,47 +2152,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K47">
-        <v>0.4226044226044226</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="L47">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="M47">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="N47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>235</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.4210526315789473</v>
+        <v>0.3968871595330739</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="M48">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2147,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>44</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>0.4013698630136986</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L49">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="M49">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2173,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>437</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K50">
-        <v>0.3970588235294117</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2199,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K51">
-        <v>0.3923444976076555</v>
+        <v>0.373972602739726</v>
       </c>
       <c r="L51">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="M51">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2225,21 +2282,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>127</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K52">
-        <v>0.3884892086330936</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L52">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2251,15 +2308,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K53">
-        <v>0.3833333333333334</v>
+        <v>0.359375</v>
       </c>
       <c r="L53">
         <v>23</v>
@@ -2277,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K54">
-        <v>0.3796296296296297</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="L54">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="M54">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2303,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>67</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K55">
-        <v>0.3783783783783784</v>
+        <v>0.3390742734122713</v>
       </c>
       <c r="L55">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="M55">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2329,21 +2386,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>69</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K56">
-        <v>0.3764705882352941</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L56">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2355,21 +2412,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K57">
-        <v>0.3762376237623762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2381,21 +2438,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3618677042801556</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="L58">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="M58">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2407,21 +2464,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>164</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K59">
-        <v>0.3609022556390977</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L59">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2433,99 +2490,99 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3545454545454546</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L60">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M60">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61">
+        <v>0.3047619047619048</v>
+      </c>
+      <c r="L61">
+        <v>32</v>
+      </c>
+      <c r="M61">
+        <v>32</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>73</v>
-      </c>
-      <c r="K61">
-        <v>0.3484848484848485</v>
-      </c>
-      <c r="L61">
-        <v>23</v>
-      </c>
-      <c r="M61">
-        <v>23</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>43</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K62">
-        <v>0.3087248322147651</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="L62">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K63">
-        <v>0.3038793103448276</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L63">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2534,76 +2591,76 @@
         <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>646</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K64">
-        <v>0.2976190476190476</v>
+        <v>0.2837837837837838</v>
       </c>
       <c r="L64">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K65">
-        <v>0.2972972972972973</v>
+        <v>0.2728476821192053</v>
       </c>
       <c r="L65">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="M65">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>78</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K66">
-        <v>0.2761904761904762</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L66">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2615,47 +2672,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K67">
-        <v>0.2754966887417218</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="L67">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M67">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>547</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K68">
-        <v>0.2663252240717029</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="L68">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="M68">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2664,24 +2721,24 @@
         <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>573</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K69">
+        <v>0.2539184952978056</v>
+      </c>
+      <c r="L69">
         <v>81</v>
       </c>
-      <c r="K69">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="L69">
-        <v>22</v>
-      </c>
       <c r="M69">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2693,21 +2750,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>64</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K70">
-        <v>0.2540983606557377</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="L70">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2719,21 +2776,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>0.2477064220183486</v>
+        <v>0.24</v>
       </c>
       <c r="L71">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M71">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2745,21 +2802,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>0.2393162393162393</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L72">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M72">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2771,21 +2828,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K73">
-        <v>0.2384105960264901</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="L73">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M73">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2797,21 +2854,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K74">
-        <v>0.2382445141065831</v>
+        <v>0.2147239263803681</v>
       </c>
       <c r="L74">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M74">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2823,21 +2880,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>243</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>0.2325581395348837</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="L75">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M75">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2849,21 +2906,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K76">
+        <v>0.2121951219512195</v>
+      </c>
+      <c r="L76">
+        <v>87</v>
+      </c>
+      <c r="M76">
         <v>88</v>
-      </c>
-      <c r="K76">
-        <v>0.2243243243243243</v>
-      </c>
-      <c r="L76">
-        <v>83</v>
-      </c>
-      <c r="M76">
-        <v>84</v>
       </c>
       <c r="N76">
         <v>0.99</v>
@@ -2875,21 +2932,21 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K77">
-        <v>0.2199312714776632</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L77">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2901,47 +2958,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>227</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>0.2195121951219512</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="L78">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="M78">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>128</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K79">
-        <v>0.2153846153846154</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2953,41 +3010,41 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K80">
-        <v>0.208955223880597</v>
+        <v>0.2029520295202952</v>
       </c>
       <c r="L80">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M80">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N80">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>159</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K81">
-        <v>0.2068126520681265</v>
+        <v>0.1864035087719298</v>
       </c>
       <c r="L81">
         <v>85</v>
@@ -3005,21 +3062,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>326</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K82">
-        <v>0.1987179487179487</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3031,21 +3088,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K83">
-        <v>0.1984732824427481</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L83">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M83">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3057,21 +3114,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>105</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K84">
-        <v>0.1977401129943503</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="L84">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M84">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3083,47 +3140,47 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>142</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K85">
-        <v>0.1938325991189427</v>
+        <v>0.1742243436754177</v>
       </c>
       <c r="L85">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="M85">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="N85">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K86">
-        <v>0.1881918819188192</v>
+        <v>0.1740740740740741</v>
       </c>
       <c r="L86">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M86">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3135,47 +3192,47 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K87">
-        <v>0.1840909090909091</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L87">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="M87">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>359</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K88">
-        <v>0.1825396825396825</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="L88">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M88">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3187,21 +3244,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K89">
-        <v>0.1814814814814815</v>
+        <v>0.1681818181818182</v>
       </c>
       <c r="L89">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="M89">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3213,119 +3270,119 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>221</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K90">
-        <v>0.1696969696969697</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L90">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M90">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K91">
-        <v>0.1694510739856802</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="L91">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="M91">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>348</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K92">
-        <v>0.1680672268907563</v>
+        <v>0.1572327044025157</v>
       </c>
       <c r="L92">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M92">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>198</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1656441717791411</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="L93">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M93">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>136</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1527777777777778</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L94">
         <v>22</v>
@@ -3343,21 +3400,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1451612903225807</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L95">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M95">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3369,151 +3426,151 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>212</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1428571428571428</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="L96">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M96">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1373626373626374</v>
+        <v>0.133428981348637</v>
       </c>
       <c r="L97">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="M97">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="N97">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O97">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>314</v>
+        <v>604</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K98">
-        <v>0.1291248206599713</v>
+        <v>0.1330645161290323</v>
       </c>
       <c r="L98">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="M98">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="N98">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>607</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1261682242990654</v>
+        <v>0.1156015037593985</v>
       </c>
       <c r="L99">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="M99">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="N99">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O99">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K100">
-        <v>0.1243243243243243</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="L100">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M100">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100">
-        <v>162</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K101">
-        <v>0.1116751269035533</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="L101">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M101">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3525,21 +3582,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>350</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K102">
-        <v>0.1057692307692308</v>
+        <v>0.09778597785977859</v>
       </c>
       <c r="L102">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="M102">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3551,177 +3608,177 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>186</v>
+        <v>489</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K103">
-        <v>0.1</v>
+        <v>0.09035621198957429</v>
       </c>
       <c r="L103">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="M103">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="N103">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O103">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>468</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K104">
-        <v>0.09558823529411764</v>
+        <v>0.08880308880308881</v>
       </c>
       <c r="L104">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M104">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>246</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K105">
-        <v>0.09090909090909091</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="L105">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M105">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N105">
-        <v>0.9399999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="O105">
-        <v>0.06000000000000005</v>
+        <v>0.26</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>330</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K106">
-        <v>0.08148148148148149</v>
+        <v>0.07713498622589532</v>
       </c>
       <c r="L106">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M106">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N106">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O106">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>496</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K107">
-        <v>0.07804878048780488</v>
+        <v>0.07524271844660194</v>
       </c>
       <c r="L107">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M107">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N107">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O107">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K108">
-        <v>0.07410636442894507</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="L108">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M108">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="N108">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="O108">
-        <v>0.11</v>
+        <v>0.38</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>1062</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K109">
-        <v>0.06451612903225806</v>
+        <v>0.06744868035190615</v>
       </c>
       <c r="L109">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M109">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N109">
         <v>0.85</v>
@@ -3733,59 +3790,85 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K110">
-        <v>0.05526315789473684</v>
+        <v>0.06117021276595744</v>
       </c>
       <c r="L110">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M110">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="N110">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="O110">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K111">
-        <v>0.04365620736698499</v>
+        <v>0.05867970660146699</v>
       </c>
       <c r="L111">
+        <v>24</v>
+      </c>
+      <c r="M111">
+        <v>25</v>
+      </c>
+      <c r="N111">
+        <v>0.96</v>
+      </c>
+      <c r="O111">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P111" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K112">
+        <v>0.03698630136986301</v>
+      </c>
+      <c r="L112">
+        <v>27</v>
+      </c>
+      <c r="M112">
         <v>32</v>
       </c>
-      <c r="M111">
-        <v>34</v>
-      </c>
-      <c r="N111">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O111">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P111" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q111">
-        <v>701</v>
+      <c r="N112">
+        <v>0.84</v>
+      </c>
+      <c r="O112">
+        <v>0.16</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
